--- a/LeetCodeProblems.xlsx
+++ b/LeetCodeProblems.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hands\PycharmProjects\leetcode_challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448E0650-1DD4-43B9-927B-DF5317FB8516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF46931-97CF-462C-8E1F-D227AA8863F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCodeProblems" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Type</t>
   </si>
@@ -67,6 +67,27 @@
   </si>
   <si>
     <t>2 pointers</t>
+  </si>
+  <si>
+    <t>Permutation in String</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>Med</t>
+  </si>
+  <si>
+    <t>Comeback</t>
+  </si>
+  <si>
+    <t>Find All Anagrams in a String</t>
+  </si>
+  <si>
+    <t>Permutations</t>
+  </si>
+  <si>
+    <t>Stack</t>
   </si>
 </sst>
 </file>
@@ -593,7 +614,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="10" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -601,8 +622,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -960,24 +984,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="41.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -996,8 +1021,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1014,15 +1042,19 @@
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1033,151 +1065,275 @@
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="F3" s="6">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f>HYPERLINK("https://leetcode.com/problems/permutation-in-string", "here")</f>
+        <v>here</v>
+      </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f>HYPERLINK("https://leetcode.com/problems/find-all-anagrams-in-a-string/", "here")</f>
+        <v>here</v>
+      </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f>HYPERLINK("https://leetcode.com/problems/permutations", "here")</f>
+        <v>here</v>
+      </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="4" t="str">
+        <f t="shared" ref="D5:D21" si="0">HYPERLINK("https://leetcode.com/problems/permutation-in-string", "here")</f>
+        <v>here</v>
+      </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>here</v>
+      </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>here</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>here</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>here</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>here</v>
+      </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>here</v>
+      </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>here</v>
+      </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>here</v>
+      </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>here</v>
+      </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>here</v>
+      </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>here</v>
+      </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>here</v>
+      </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>here</v>
+      </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>here</v>
+      </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
